--- a/Output/DistanceTable.xlsx
+++ b/Output/DistanceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mezaf\OneDrive\Desktop\MezaFidalgo_Ozog_Pepper_ENV872_EDA_FinalProject\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7463125C-8133-45F6-995C-FBF9F06D2799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6611B99C-22C1-4649-9B76-4423F6F56911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="1800" windowWidth="21600" windowHeight="12720" xr2:uid="{4D87A038-6BC4-4AEE-A3C8-F1DE8807BAB2}"/>
+    <workbookView xWindow="690" yWindow="1230" windowWidth="20235" windowHeight="11295" xr2:uid="{4D87A038-6BC4-4AEE-A3C8-F1DE8807BAB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>Total # of Strandings</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>20000 - 40000</t>
+  </si>
+  <si>
+    <t>Odontocetes</t>
+  </si>
+  <si>
+    <t>Mysticetes</t>
   </si>
 </sst>
 </file>
@@ -134,20 +140,20 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,185 +470,239 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708B0E2C-85C3-4D95-A031-BD5D48DB8F0E}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="H1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="L1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>425</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>92</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>125</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>200</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>113</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>32</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>2</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>4</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>2</v>
       </c>
+      <c r="H8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>6</v>
       </c>
+      <c r="H9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>4</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
